--- a/ExcelTableBuilder/Sample1.xlsx
+++ b/ExcelTableBuilder/Sample1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>!TABLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sample_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!ID:TableSampleKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnumSampleA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,42 +233,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STRING_KEY_A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRING_KEY_A02</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A03</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A04</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A05</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A06</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A07</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A08</t>
-  </si>
-  <si>
-    <t>STRING_KEY_A09</t>
-  </si>
-  <si>
     <t>sample_id_string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!ID_STRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sample_vector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,9 +352,6 @@
     <t>B10018</t>
   </si>
   <si>
-    <t>B10019</t>
-  </si>
-  <si>
     <t>B10020</t>
   </si>
   <si>
@@ -402,6 +359,14 @@
   </si>
   <si>
     <t>B10022</t>
+  </si>
+  <si>
+    <t>!ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P54"/>
+  <dimension ref="B2:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -809,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -835,16 +800,16 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -861,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -881,10 +846,10 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -898,10 +863,10 @@
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -915,10 +880,10 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -958,60 +923,60 @@
     </row>
     <row r="16" spans="2:10">
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="C19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="C21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="C22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
       <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
       <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
       <c r="C25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -1030,10 +995,10 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
@@ -1042,31 +1007,28 @@
         <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -1077,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -1089,39 +1051,36 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
-      </c>
-      <c r="O31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
       <c r="C32" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>5522</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -1129,40 +1088,37 @@
       <c r="H32">
         <v>55.22</v>
       </c>
-      <c r="I32">
-        <v>10001</v>
+      <c r="I32" t="s">
+        <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>5522</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1170,31 +1126,28 @@
       <c r="H33">
         <v>55.22</v>
       </c>
-      <c r="I33">
-        <v>10002</v>
+      <c r="I33" t="s">
+        <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:11">
       <c r="C34" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>5522</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -1202,28 +1155,25 @@
       <c r="H34">
         <v>55.22</v>
       </c>
-      <c r="I34">
-        <v>10003</v>
+      <c r="I34" t="s">
+        <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:11">
       <c r="C35" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>5522</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -1231,28 +1181,25 @@
       <c r="H35">
         <v>55.22</v>
       </c>
-      <c r="I35">
-        <v>10004</v>
+      <c r="I35" t="s">
+        <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>5522</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1260,28 +1207,25 @@
       <c r="H36">
         <v>55.22</v>
       </c>
-      <c r="I36">
-        <v>10005</v>
+      <c r="I36" t="s">
+        <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:11">
       <c r="C37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>5522</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1289,28 +1233,25 @@
       <c r="H37">
         <v>55.22</v>
       </c>
-      <c r="I37">
-        <v>10006</v>
+      <c r="I37" t="s">
+        <v>8</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:11">
       <c r="C38" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>5522</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -1318,28 +1259,25 @@
       <c r="H38">
         <v>55.22</v>
       </c>
-      <c r="I38">
-        <v>10007</v>
+      <c r="I38" t="s">
+        <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:11">
       <c r="C39" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>5522</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -1347,28 +1285,25 @@
       <c r="H39">
         <v>55.22</v>
       </c>
-      <c r="I39">
-        <v>10008</v>
+      <c r="I39" t="s">
+        <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:11">
       <c r="C40" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>5522</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -1376,25 +1311,25 @@
       <c r="H40">
         <v>55.22</v>
       </c>
-      <c r="I40">
-        <v>10009</v>
+      <c r="I40" t="s">
+        <v>8</v>
       </c>
       <c r="J40" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:11">
       <c r="C41" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <v>5522</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -1402,22 +1337,19 @@
       <c r="H41">
         <v>55.22</v>
       </c>
-      <c r="I41">
-        <v>10010</v>
+      <c r="I41" t="s">
+        <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <v>5522</v>
@@ -1428,19 +1360,19 @@
       <c r="H42">
         <v>55.22</v>
       </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
       <c r="J42" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>5522</v>
@@ -1451,19 +1383,19 @@
       <c r="H43">
         <v>55.22</v>
       </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
       <c r="J43" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>5522</v>
@@ -1474,19 +1406,19 @@
       <c r="H44">
         <v>55.22</v>
       </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
       <c r="J44" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D45">
         <v>5522</v>
@@ -1497,19 +1429,19 @@
       <c r="H45">
         <v>55.22</v>
       </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
       <c r="J45" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <v>5522</v>
@@ -1520,22 +1452,25 @@
       <c r="H46">
         <v>55.22</v>
       </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
       <c r="J46" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
-      </c>
-      <c r="L46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D47">
         <v>5522</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -1543,19 +1478,19 @@
       <c r="H47">
         <v>55.22</v>
       </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
       <c r="J47" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D48">
         <v>5522</v>
@@ -1566,19 +1501,19 @@
       <c r="H48">
         <v>55.22</v>
       </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
       <c r="J48" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:11">
       <c r="C49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <v>5522</v>
@@ -1589,19 +1524,19 @@
       <c r="H49">
         <v>55.22</v>
       </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
       <c r="J49" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:11">
       <c r="C50" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>5522</v>
@@ -1609,80 +1544,83 @@
       <c r="H50">
         <v>55.22</v>
       </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
       <c r="J50" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <v>5522</v>
+      </c>
+      <c r="H51">
+        <v>55.22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>5522</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52">
+        <v>55.22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51">
-        <v>5522</v>
-      </c>
-      <c r="H51">
-        <v>55.22</v>
-      </c>
-      <c r="J51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52">
-        <v>5522</v>
-      </c>
-      <c r="H52">
-        <v>55.22</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:11">
       <c r="C53" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <v>5522</v>
       </c>
-      <c r="F53">
-        <v>5522</v>
+      <c r="F53" t="s">
+        <v>61</v>
       </c>
       <c r="H53">
         <v>55.22</v>
       </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
       <c r="J53" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:11">
       <c r="B54" t="s">
         <v>12</v>
       </c>
